--- a/Excel/TestCasesExcel.xlsx
+++ b/Excel/TestCasesExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjayadwani\eclipse-workspace\SeleniumTesting\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51820EE4-1E67-44DD-BE6E-7F58A07EBE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F4500-AB10-44C0-81A0-A40590832D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD4315C6-27F2-40DC-8382-53CCBF42EA9D}"/>
   </bookViews>
